--- a/6五年计划：青年榜样/一五种粮收成.xlsx
+++ b/6五年计划：青年榜样/一五种粮收成.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>政治学</t>
     <rPh sb="0" eb="1">
@@ -46,33 +46,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查清单</t>
-    <rPh sb="0" eb="1">
-      <t>jian'cha'qing'dan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体验</t>
-    <rPh sb="0" eb="1">
-      <t>ti'yan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>察觉</t>
-    <rPh sb="0" eb="1">
-      <t>cha'jue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017年11月</t>
     <rPh sb="4" eb="5">
       <t>nian</t>
     </rPh>
     <rPh sb="7" eb="8">
       <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种粮项目</t>
+    <rPh sb="0" eb="1">
+      <t>zhong'liang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1季</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2季</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3季</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4季</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5季</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6季</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7季</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学</t>
+    <rPh sb="0" eb="1">
+      <t>ji'suan'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke'xue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,133 +462,140 @@
     <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>20171110</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1">
         <v>20171111</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1">
         <v>20171112</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>20171113</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
         <v>20171114</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
         <v>20171115</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="2">
-        <v>3</v>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>20171116</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
         <v>20171117</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
         <v>20171118</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="2">
-        <v>4</v>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>20171119</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1">
         <v>20171120</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1">
         <v>20171121</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="2">
-        <v>5</v>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>20171122</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1">
         <v>20171123</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1">
@@ -549,8 +604,8 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="2">
-        <v>6</v>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="1">
         <v>20171125</v>
@@ -572,8 +627,8 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="2">
-        <v>7</v>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="1">
         <v>20171128</v>
@@ -594,7 +649,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="A2:A22"/>
     <mergeCell ref="B2:B4"/>

--- a/6五年计划：青年榜样/一五种粮收成.xlsx
+++ b/6五年计划：青年榜样/一五种粮收成.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>政治学</t>
     <rPh sb="0" eb="1">
@@ -121,6 +121,60 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ke'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC更新</t>
+    <rPh sb="2" eb="3">
+      <t>geng'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P锟记录</t>
+    <rPh sb="1" eb="2">
+      <t>kun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写字</t>
+    <rPh sb="0" eb="1">
+      <t>xie'zuo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑来记录</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'lai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <rPh sb="0" eb="1">
+      <t>ying'wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔兽小说</t>
+    <rPh sb="0" eb="1">
+      <t>mo'shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'hsuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,14 +516,15 @@
     <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -484,8 +539,14 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -495,22 +556,37 @@
       <c r="C2" s="1">
         <v>20171110</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1">
         <v>20171111</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1">
         <v>20171112</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -519,21 +595,21 @@
         <v>20171113</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
         <v>20171114</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
         <v>20171115</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -542,21 +618,21 @@
         <v>20171116</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
         <v>20171117</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
         <v>20171118</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -565,21 +641,21 @@
         <v>20171119</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1">
         <v>20171120</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1">
         <v>20171121</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -588,14 +664,14 @@
         <v>20171122</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1">
         <v>20171123</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1">

--- a/6五年计划：青年榜样/一五种粮收成.xlsx
+++ b/6五年计划：青年榜样/一五种粮收成.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>政治学</t>
     <rPh sb="0" eb="1">
@@ -175,6 +175,19 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>xiao'hsuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄章晋回答整理</t>
+    <rPh sb="0" eb="1">
+      <t>huang'zhang'jin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui'da</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng'li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,7 +521,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,7 +529,7 @@
     <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
@@ -577,6 +590,9 @@
       <c r="B3" s="2"/>
       <c r="C3" s="1">
         <v>20171111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/6五年计划：青年榜样/一五种粮收成.xlsx
+++ b/6五年计划：青年榜样/一五种粮收成.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>政治学</t>
     <rPh sb="0" eb="1">
@@ -179,7 +179,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄章晋回答整理</t>
+    <t>黄章晋回答整理+P锟记录</t>
     <rPh sb="0" eb="1">
       <t>huang'zhang'jin</t>
     </rPh>
@@ -188,6 +188,44 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>zheng'li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备一些考卷内容</t>
+    <rPh sb="0" eb="1">
+      <t>zhun'bei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi'xie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kao'juan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nei'rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC+买C游戏编程书</t>
+    <rPh sb="3" eb="4">
+      <t>mai'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you'xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bian'cheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -520,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,8 +567,8 @@
     <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
@@ -593,6 +631,18 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2033</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/6五年计划：青年榜样/一五种粮收成.xlsx
+++ b/6五年计划：青年榜样/一五种粮收成.xlsx
@@ -27,24 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>政治学</t>
-    <rPh sb="0" eb="1">
-      <t>zheng'zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济学</t>
-    <rPh sb="0" eb="1">
-      <t>jing'ji'xue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>2017年11月</t>
     <rPh sb="4" eb="5">
@@ -56,16 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>种粮项目</t>
-    <rPh sb="0" eb="1">
-      <t>zhong'liang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiang'mu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1季</t>
     <rPh sb="1" eb="2">
       <t>ji</t>
@@ -115,16 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算机科学</t>
-    <rPh sb="0" eb="1">
-      <t>ji'suan'ji</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ke'xue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CC更新</t>
     <rPh sb="2" eb="3">
       <t>geng'xin</t>
@@ -142,29 +105,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>写字</t>
-    <rPh sb="0" eb="1">
-      <t>xie'zuo</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>笑来记录</t>
     <rPh sb="0" eb="1">
       <t>xiao'lai</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ji'lu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文</t>
-    <rPh sb="0" eb="1">
-      <t>ying'wen</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +172,83 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小必种粮食</t>
+    <rPh sb="0" eb="1">
+      <t>zui'xiao'bi'zhong'liang'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治学粮食</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法学粮食</t>
+    <rPh sb="0" eb="1">
+      <t>fang'fa'xue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码粮食</t>
+    <rPh sb="0" eb="1">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写字粮食</t>
+    <rPh sb="0" eb="1">
+      <t>xie'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文粮食</t>
+    <rPh sb="0" eb="1">
+      <t>ying'wen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早起巡田</t>
+    <rPh sb="0" eb="1">
+      <t>zao'qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未</t>
+    <rPh sb="0" eb="1">
+      <t>wei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,188 +579,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="33" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>20171110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1">
         <v>2131</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1">
         <v>20171111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1">
         <v>20171112</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>20171113</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
         <v>20171114</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
         <v>20171115</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>20171116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
         <v>20171117</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
         <v>20171118</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
         <v>20171119</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1">
         <v>20171120</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1">
         <v>20171121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>20171122</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1">
         <v>20171123</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1">
@@ -747,7 +780,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>20171125</v>
@@ -770,7 +803,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1">
         <v>20171128</v>

--- a/6五年计划：青年榜样/一五种粮收成.xlsx
+++ b/6五年计划：青年榜样/一五种粮收成.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="打卡" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>2017年11月</t>
     <rPh sb="4" eb="5">
@@ -249,6 +249,33 @@
     <t>未</t>
     <rPh sb="0" eb="1">
       <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF文章</t>
+    <rPh sb="3" eb="4">
+      <t>wen'zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔兽小说</t>
+    <rPh sb="0" eb="1">
+      <t>mo'shou'xiao'shuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄重点整理</t>
+    <rPh sb="0" eb="1">
+      <t>huang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhong'dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng'li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,12 +321,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,7 +612,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,6 +714,18 @@
       <c r="C4" s="1">
         <v>20171112</v>
       </c>
+      <c r="D4" s="3">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>

--- a/6五年计划：青年榜样/一五种粮收成.xlsx
+++ b/6五年计划：青年榜样/一五种粮收成.xlsx
@@ -611,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -726,6 +726,9 @@
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>

--- a/6五年计划：青年榜样/一五种粮收成.xlsx
+++ b/6五年计划：青年榜样/一五种粮收成.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24580" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="打卡" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>2017年11月</t>
     <rPh sb="4" eb="5">
@@ -275,6 +275,23 @@
       <t>zhong'dian</t>
     </rPh>
     <rPh sb="3" eb="4">
+      <t>zheng'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12：55以理服己</t>
+    <rPh sb="5" eb="6">
+      <t>yi'li'fu'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC合并整理</t>
+    <rPh sb="2" eb="3">
+      <t>he'bing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>zheng'li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,10 +343,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,7 +629,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,9 +637,9 @@
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="33" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
@@ -630,11 +647,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
@@ -655,10 +672,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
@@ -684,8 +701,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1">
         <v>20171111</v>
       </c>
@@ -709,12 +726,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1">
         <v>20171112</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.56111111111111112</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -726,36 +743,39 @@
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>20171113</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1">
         <v>20171114</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1">
         <v>20171115</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1">
@@ -763,22 +783,22 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1">
         <v>20171117</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="1">
         <v>20171118</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1">
@@ -786,22 +806,22 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="1">
         <v>20171120</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="1">
         <v>20171121</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1">
@@ -809,22 +829,22 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="1">
         <v>20171123</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="1">
         <v>20171124</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1">
@@ -832,22 +852,22 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="1">
         <v>20171126</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="1">
         <v>20171127</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1">
@@ -855,15 +875,15 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="1">
         <v>20171129</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="1">
         <v>20171130</v>
       </c>

--- a/6五年计划：青年榜样/一五种粮收成.xlsx
+++ b/6五年计划：青年榜样/一五种粮收成.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>2017年11月</t>
     <rPh sb="4" eb="5">
@@ -293,6 +293,13 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>zheng'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚经</t>
+    <rPh sb="0" eb="1">
+      <t>jin'gang'jing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -629,7 +636,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,6 +762,9 @@
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>27</v>
       </c>

--- a/6五年计划：青年榜样/一五种粮收成.xlsx
+++ b/6五年计划：青年榜样/一五种粮收成.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>2017年11月</t>
     <rPh sb="4" eb="5">
@@ -186,34 +186,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>政治学粮食</t>
-    <rPh sb="0" eb="1">
-      <t>zheng'zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xue</t>
+    <t>方法学粮食</t>
+    <rPh sb="0" eb="1">
+      <t>fang'fa'xue</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>liang'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法学粮食</t>
-    <rPh sb="0" eb="1">
-      <t>fang'fa'xue</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>liang'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码粮食</t>
-    <rPh sb="0" eb="1">
-      <t>dai'ma</t>
-    </rPh>
-    <rPh sb="2" eb="3">
       <t>liang'shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,9 +274,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金刚经</t>
-    <rPh sb="0" eb="1">
-      <t>jin'gang'jing</t>
+    <t>意识形态粮食</t>
+    <rPh sb="0" eb="1">
+      <t>yi'shi'xing'tai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚经笔记</t>
+    <rPh sb="0" eb="1">
+      <t>jin'gang'jing'bi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济学大类重整</t>
+    <rPh sb="0" eb="1">
+      <t>jing'ji'xue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'lei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chong'zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300行代码粮食</t>
+    <rPh sb="3" eb="4">
+      <t>hang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>liang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11：12形而上学</t>
+    <rPh sb="5" eb="6">
+      <t>xing'er'shang'xue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -636,7 +656,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +666,7 @@
     <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="33" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
@@ -660,22 +680,22 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -689,7 +709,7 @@
         <v>20171110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -714,7 +734,7 @@
         <v>20171111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -742,13 +762,16 @@
         <v>0.56111111111111112</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -760,13 +783,22 @@
         <v>20171113</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1">
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -774,6 +806,15 @@
       <c r="B6" s="3"/>
       <c r="C6" s="1">
         <v>20171114</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1">
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">

--- a/6五年计划：青年榜样/一五种粮收成.xlsx
+++ b/6五年计划：青年榜样/一五种粮收成.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>2017年11月</t>
     <rPh sb="4" eb="5">
@@ -320,6 +320,25 @@
     <t>11：12形而上学</t>
     <rPh sb="5" eb="6">
       <t>xing'er'shang'xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类并添加Power锟内容</t>
+    <rPh sb="0" eb="1">
+      <t>fen'lei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tian'jia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kun</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nei'rong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -656,7 +675,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,6 +829,9 @@
       <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>

--- a/6五年计划：青年榜样/一五种粮收成.xlsx
+++ b/6五年计划：青年榜样/一五种粮收成.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>2017年11月</t>
     <rPh sb="4" eb="5">
@@ -206,16 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英文粮食</t>
-    <rPh sb="0" eb="1">
-      <t>ying'wen</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>liang'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>早起巡田</t>
     <rPh sb="0" eb="1">
       <t>zao'qi</t>
@@ -339,6 +329,39 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>nei'rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别整理</t>
+    <rPh sb="0" eb="1">
+      <t>lei'bie'zheng'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生病回去早休息</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'bing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui'qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zao'xiu'xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文背诵粮食</t>
+    <rPh sb="0" eb="1">
+      <t>ying'wen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bei'song</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liang'shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -672,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,37 +710,37 @@
     <col min="5" max="5" width="33" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -728,7 +751,7 @@
         <v>20171110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -746,14 +769,14 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1">
         <v>20171111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -771,7 +794,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1">
@@ -781,19 +804,22 @@
         <v>0.56111111111111112</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -802,16 +828,16 @@
         <v>20171113</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>11</v>
@@ -820,33 +846,42 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
         <v>20171114</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="G6" s="1">
+        <v>143</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1">
         <v>655</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1">
         <v>20171115</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -855,21 +890,21 @@
         <v>20171116</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1">
         <v>20171117</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1">
         <v>20171118</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -878,21 +913,21 @@
         <v>20171119</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1">
         <v>20171120</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="1">
         <v>20171121</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>5</v>
@@ -901,14 +936,14 @@
         <v>20171122</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1">
         <v>20171123</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1">

--- a/6五年计划：青年榜样/一五种粮收成.xlsx
+++ b/6五年计划：青年榜样/一五种粮收成.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>2017年11月</t>
     <rPh sb="4" eb="5">
@@ -186,26 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方法学粮食</t>
-    <rPh sb="0" eb="1">
-      <t>fang'fa'xue</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>liang'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写字粮食</t>
-    <rPh sb="0" eb="1">
-      <t>xie'zi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>liang'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>早起巡田</t>
     <rPh sb="0" eb="1">
       <t>zao'qi</t>
@@ -264,16 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>意识形态粮食</t>
-    <rPh sb="0" eb="1">
-      <t>yi'shi'xing'tai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>liang'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金刚经笔记</t>
     <rPh sb="0" eb="1">
       <t>jin'gang'jing'bi'ji</t>
@@ -290,19 +260,6 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>chong'zheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300行代码粮食</t>
-    <rPh sb="3" eb="4">
-      <t>hang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dai'ma</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>liang'shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,15 +310,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英文背诵粮食</t>
+    <t>英文耕作粮食</t>
     <rPh sb="0" eb="1">
       <t>ying'wen</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>bei'song</t>
+      <t>geng'zuo</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>liang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意识形态耕作</t>
+    <rPh sb="0" eb="1">
+      <t>yi'shi'xing'tai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>geng'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300行代码耕作</t>
+    <rPh sb="3" eb="4">
+      <t>hang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>geng'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法学耕作</t>
+    <rPh sb="0" eb="1">
+      <t>fang'fa'xue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>geng'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写字耕作</t>
+    <rPh sb="0" eb="1">
+      <t>xie'zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>geng'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：30意识形态</t>
+    <rPh sb="5" eb="6">
+      <t>yi'shi'xing'tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意识形态内容更新</t>
+    <rPh sb="0" eb="1">
+      <t>yi'shi'xing'tai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>geng'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从粮食转为耕作</t>
+    <rPh sb="0" eb="1">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>liang'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuan'wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>geng'zuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -697,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,22 +758,22 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -751,7 +787,7 @@
         <v>20171110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -776,7 +812,7 @@
         <v>20171111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -804,16 +840,16 @@
         <v>0.56111111111111112</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -828,16 +864,16 @@
         <v>20171113</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>11</v>
@@ -853,25 +889,25 @@
         <v>20171114</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1">
         <v>143</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1">
         <v>655</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -879,6 +915,24 @@
       <c r="B7" s="3"/>
       <c r="C7" s="1">
         <v>20171115</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1">
+        <v>149</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2286</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
